--- a/融资/A轮/FDD/财务预测.xlsx
+++ b/融资/A轮/FDD/财务预测.xlsx
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -474,6 +474,14 @@
   </si>
   <si>
     <t>市场成本(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业净利(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他成本(万元)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -893,12 +901,12 @@
     <col min="5" max="5" width="18.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="35.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="9" max="11" width="14.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="35.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -927,10 +935,16 @@
         <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -960,9 +974,17 @@
         <f>(C2*0.8+D2*0.5)*1.5*3</f>
         <v>54</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2">
+        <f>E2*2.5%</f>
+        <v>45</v>
+      </c>
+      <c r="K2" s="2">
+        <f>F2-G2-H2-I2-J2</f>
+        <v>-27</v>
+      </c>
+      <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -992,11 +1014,19 @@
         <f t="shared" ref="I3:I12" si="3">(C3*0.8+D3*0.5)*1.5*3</f>
         <v>180</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J12" si="4">E3*2.5%</f>
+        <v>150</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K12" si="5">F3-G3-H3-I3-J3</f>
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1028,9 +1058,17 @@
         <f t="shared" si="3"/>
         <v>299.25</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <f t="shared" si="4"/>
+        <v>246.25</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="5"/>
+        <v>67.5</v>
+      </c>
+      <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1062,11 +1100,19 @@
         <f t="shared" si="3"/>
         <v>416.25</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="2">
+        <f t="shared" si="4"/>
+        <v>331.25</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="5"/>
+        <v>97.5</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1098,11 +1144,19 @@
         <f t="shared" si="3"/>
         <v>589.5</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="2">
+        <f t="shared" si="4"/>
+        <v>447.5</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="5"/>
+        <v>225</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1134,11 +1188,19 @@
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="2">
+        <f t="shared" si="4"/>
+        <v>650</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="5"/>
+        <v>450</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1170,11 +1232,19 @@
         <f t="shared" si="3"/>
         <v>1395</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="2">
+        <f t="shared" si="4"/>
+        <v>975</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="5"/>
+        <v>3318</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1192,7 +1262,7 @@
         <v>81000</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:F12" si="4">E9*13%+D9*1+D9*50*5%</f>
+        <f t="shared" ref="F9:F12" si="6">E9*13%+D9*1+D9*50*5%</f>
         <v>12630</v>
       </c>
       <c r="G9" s="2">
@@ -1206,9 +1276,17 @@
         <f t="shared" si="3"/>
         <v>2070</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <f t="shared" si="4"/>
+        <v>2025</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="5"/>
+        <v>8103</v>
+      </c>
+      <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1222,11 +1300,11 @@
         <v>1200</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:E12" si="5">(C10*70%*100+C10*20%*60+C10*10%*30)*3+D10*50</f>
+        <f t="shared" ref="E10:E12" si="7">(C10*70%*100+C10*20%*60+C10*10%*30)*3+D10*50</f>
         <v>111000</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18630</v>
       </c>
       <c r="G10" s="2">
@@ -1240,9 +1318,17 @@
         <f t="shared" si="3"/>
         <v>3420</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <f t="shared" si="4"/>
+        <v>2775</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="5"/>
+        <v>12003</v>
+      </c>
+      <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1256,11 +1342,11 @@
         <v>2500</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>176000</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31630</v>
       </c>
       <c r="G11" s="2">
@@ -1274,9 +1360,17 @@
         <f t="shared" si="3"/>
         <v>6345</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <f t="shared" si="4"/>
+        <v>4400</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="5"/>
+        <v>20453</v>
+      </c>
+      <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1290,11 +1384,11 @@
         <v>5000</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>301000</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>56630</v>
       </c>
       <c r="G12" s="2">
@@ -1308,7 +1402,15 @@
         <f t="shared" si="3"/>
         <v>11970</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="2">
+        <f t="shared" si="4"/>
+        <v>7525</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="5"/>
+        <v>36703</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/融资/A轮/FDD/财务预测.xlsx
+++ b/融资/A轮/FDD/财务预测.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,31 +44,6 @@
           </rPr>
           <t xml:space="preserve">人
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>20-25</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>人</t>
         </r>
       </text>
     </comment>
@@ -82,7 +57,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>25-30</t>
+          <t>20-25</t>
         </r>
         <r>
           <rPr>
@@ -93,19 +68,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">人
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>人</t>
         </r>
       </text>
     </comment>
@@ -193,7 +156,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>40</t>
+          <t>25-30</t>
         </r>
         <r>
           <rPr>
@@ -294,18 +257,8 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0">
+    <comment ref="E11" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>40</t>
-        </r>
         <r>
           <rPr>
             <b/>
@@ -315,6 +268,32 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t xml:space="preserve">allan：2020年Q2开始，空载比例消失
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>40</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
           <t xml:space="preserve">人
 </t>
         </r>
@@ -332,6 +311,43 @@
       </text>
     </comment>
     <comment ref="G12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>40</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">人
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -373,7 +389,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,14 +498,78 @@
   </si>
   <si>
     <t>其他成本(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国有15万量油量车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 产生的收入（万元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ａ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 加盟车辆每月平均产生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自有车辆毛利8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟车辆每月收费1万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2万/人/月*3*人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C*20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自营油罐车*0.8人+加盟油罐车*0.5人  每人1.5万每月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A*2.5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,7 +659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,17 +672,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -676,6 +770,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -710,6 +805,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -885,14 +981,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
@@ -906,7 +1002,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -944,194 +1040,178 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>15</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <f>(C2*10%*100+C2*20%*60+C2*60%*30)*3+D2*50</f>
-        <v>1800</v>
-      </c>
-      <c r="F2" s="2">
-        <f>E2*8%+D2*1</f>
-        <v>144</v>
-      </c>
-      <c r="G2" s="2">
-        <v>60</v>
-      </c>
-      <c r="H2" s="2">
-        <f>G2*20%</f>
-        <v>12</v>
-      </c>
-      <c r="I2" s="2">
-        <f>(C2*0.8+D2*0.5)*1.5*3</f>
-        <v>54</v>
-      </c>
-      <c r="J2" s="2">
-        <f>E2*2.5%</f>
-        <v>45</v>
-      </c>
-      <c r="K2" s="2">
-        <f>F2-G2-H2-I2-J2</f>
-        <v>-27</v>
-      </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>50</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E8" si="0">(C3*10%*100+C3*20%*60+C3*60%*30)*3+D3*50</f>
+        <f>(C3*10%*100+C3*20%*60+C3*60%*30)*3+D3*50*3</f>
+        <v>1800</v>
+      </c>
+      <c r="F3" s="2">
+        <f>E3*8%+D3*3</f>
+        <v>144</v>
+      </c>
+      <c r="G3" s="2">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2">
+        <f>G3*20%</f>
+        <v>12</v>
+      </c>
+      <c r="I3" s="2">
+        <f>(C3*0.8+D3*0.5)*1.5*3</f>
+        <v>54</v>
+      </c>
+      <c r="J3" s="2">
+        <f>E3*2.5%</f>
+        <v>45</v>
+      </c>
+      <c r="K3" s="2">
+        <f>F3-G3-H3-I3-J3</f>
+        <v>-27</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E13" si="0">(C4*10%*100+C4*20%*60+C4*60%*30)*3+D4*50*3</f>
         <v>6000</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F7" si="1">E3*8%+D3*1</f>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F13" si="1">E4*8%+D4*3</f>
         <v>480</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="2">
         <v>100</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H12" si="2">G3*20%</f>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H13" si="2">G4*20%</f>
         <v>20</v>
       </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I12" si="3">(C3*0.8+D3*0.5)*1.5*3</f>
+      <c r="I4" s="2">
+        <f>(C4*0.8+D4*0.5)*1.5*3</f>
         <v>180</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J12" si="4">E3*2.5%</f>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J13" si="3">E4*2.5%</f>
         <v>150</v>
       </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K12" si="5">F3-G3-H3-I3-J3</f>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K13" si="4">F4-G4-H4-I4-J4</f>
         <v>30</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>20</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>80</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>9850</v>
-      </c>
-      <c r="F4" s="2">
+        <v>10350</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>793</v>
-      </c>
-      <c r="G4" s="2">
+        <v>843</v>
+      </c>
+      <c r="G5" s="2">
         <v>150</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H5" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:I13" si="5">(C5*0.8+D5*0.5)*1.5*3</f>
+        <v>299.25</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="3"/>
-        <v>299.25</v>
-      </c>
-      <c r="J4" s="2">
+        <v>258.75</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="4"/>
-        <v>246.25</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="5"/>
-        <v>67.5</v>
-      </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
         <v>25</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>100</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>25</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>13250</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="1"/>
-        <v>1085</v>
-      </c>
-      <c r="G5" s="2">
-        <v>200</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="3"/>
-        <v>416.25</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="4"/>
-        <v>331.25</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="5"/>
-        <v>97.5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2">
-        <v>120</v>
-      </c>
-      <c r="D6" s="2">
-        <v>70</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>17900</v>
+        <v>15750</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>1502</v>
+        <v>1335</v>
       </c>
       <c r="G6" s="2">
         <v>200</v>
@@ -1141,41 +1221,41 @@
         <v>40</v>
       </c>
       <c r="I6" s="2">
+        <f t="shared" si="5"/>
+        <v>416.25</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="3"/>
-        <v>589.5</v>
-      </c>
-      <c r="J6" s="2">
+        <v>393.75</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="4"/>
-        <v>447.5</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="5"/>
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>24900</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
-        <v>2240</v>
+        <v>2202</v>
       </c>
       <c r="G7" s="2">
         <v>200</v>
@@ -1185,85 +1265,85 @@
         <v>40</v>
       </c>
       <c r="I7" s="2">
+        <f t="shared" si="5"/>
+        <v>589.5</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="3"/>
-        <v>900</v>
-      </c>
-      <c r="J7" s="2">
+        <v>622.5</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="4"/>
-        <v>650</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="5"/>
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D8" s="2">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>39000</v>
+        <v>42000</v>
       </c>
       <c r="F8" s="2">
-        <f>E8*13%+D8*1+D8*50*5%</f>
-        <v>6120</v>
+        <f t="shared" si="1"/>
+        <v>3840</v>
       </c>
       <c r="G8" s="2">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="3"/>
-        <v>1395</v>
-      </c>
-      <c r="J8" s="2">
+        <v>1050</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="4"/>
-        <v>975</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="5"/>
-        <v>3318</v>
+        <v>1650</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2">
         <v>200</v>
       </c>
       <c r="D9" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E9" s="2">
-        <f>(C9*70%*100+C9*20%*60+C9*10%*30)*3+D9*50</f>
-        <v>81000</v>
+        <f t="shared" si="0"/>
+        <v>69000</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:F12" si="6">E9*13%+D9*1+D9*50*5%</f>
-        <v>12630</v>
+        <f t="shared" si="1"/>
+        <v>6420</v>
       </c>
       <c r="G9" s="2">
         <v>360</v>
@@ -1273,39 +1353,41 @@
         <v>72</v>
       </c>
       <c r="I9" s="2">
+        <f t="shared" si="5"/>
+        <v>1395</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="3"/>
-        <v>2070</v>
-      </c>
-      <c r="J9" s="2">
+        <v>1725</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="4"/>
-        <v>2025</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="5"/>
-        <v>8103</v>
-      </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2868</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2">
         <v>200</v>
       </c>
       <c r="D10" s="2">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:E12" si="7">(C10*70%*100+C10*20%*60+C10*10%*30)*3+D10*50</f>
-        <v>111000</v>
+        <f t="shared" si="0"/>
+        <v>114000</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="6"/>
-        <v>18630</v>
+        <f t="shared" si="1"/>
+        <v>10920</v>
       </c>
       <c r="G10" s="2">
         <v>360</v>
@@ -1315,39 +1397,39 @@
         <v>72</v>
       </c>
       <c r="I10" s="2">
+        <f t="shared" si="5"/>
+        <v>2070</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="3"/>
-        <v>3420</v>
-      </c>
-      <c r="J10" s="2">
+        <v>2850</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="4"/>
-        <v>2775</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="5"/>
-        <v>12003</v>
+        <v>5568</v>
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2">
         <v>200</v>
       </c>
       <c r="D11" s="2">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="7"/>
-        <v>176000</v>
+        <f>(C11*60%*100+C11*30%*60+C11*10%*30)*3+D11*50*3</f>
+        <v>228600</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="6"/>
-        <v>31630</v>
+        <f t="shared" si="1"/>
+        <v>21888</v>
       </c>
       <c r="G11" s="2">
         <v>360</v>
@@ -1357,39 +1439,39 @@
         <v>72</v>
       </c>
       <c r="I11" s="2">
+        <f t="shared" si="5"/>
+        <v>3420</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="3"/>
-        <v>6345</v>
-      </c>
-      <c r="J11" s="2">
+        <v>5715</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="4"/>
-        <v>4400</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="5"/>
-        <v>20453</v>
+        <v>12321</v>
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C12" s="2">
         <v>200</v>
       </c>
       <c r="D12" s="2">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="7"/>
-        <v>301000</v>
+        <f t="shared" ref="E12:E13" si="6">(C12*60%*100+C12*30%*60+C12*10%*30)*3+D12*50*3</f>
+        <v>423600</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="6"/>
-        <v>56630</v>
+        <f t="shared" si="1"/>
+        <v>41388</v>
       </c>
       <c r="G12" s="2">
         <v>360</v>
@@ -1399,19 +1481,222 @@
         <v>72</v>
       </c>
       <c r="I12" s="2">
+        <f t="shared" si="5"/>
+        <v>6345</v>
+      </c>
+      <c r="J12" s="2">
         <f t="shared" si="3"/>
+        <v>10590</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="4"/>
+        <v>24021</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>300</v>
+      </c>
+      <c r="C13" s="2">
+        <v>200</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="6"/>
+        <v>798600</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>78888</v>
+      </c>
+      <c r="G13" s="2">
+        <v>360</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="5"/>
         <v>11970</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J13" s="2">
+        <f t="shared" si="3"/>
+        <v>19965</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="4"/>
-        <v>7525</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="5"/>
-        <v>36703</v>
-      </c>
-      <c r="L12" s="2" t="s">
+        <v>46521</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C17" s="2"/>
+      <c r="D17" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>100</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="K17" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C18" s="2"/>
+      <c r="D18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>60</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="K18" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C19" s="2"/>
+      <c r="D19" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F19" s="2">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>50</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1423,12 +1708,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1437,12 +1722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
